--- a/Test Cases PlotTwizts.xlsx
+++ b/Test Cases PlotTwizts.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29010"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{692F2880-842F-4AF4-9B4D-337E92D1518B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D7BA1FD-1825-4392-B988-695A9DB21CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,8 +30,120 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="10">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="10">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+    <bk>
+      <rc t="1" v="5"/>
+    </bk>
+    <bk>
+      <rc t="1" v="6"/>
+    </bk>
+    <bk>
+      <rc t="1" v="7"/>
+    </bk>
+    <bk>
+      <rc t="1" v="8"/>
+    </bk>
+    <bk>
+      <rc t="1" v="9"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>Prerequisites</t>
   </si>
@@ -52,6 +164,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
   </si>
   <si>
     <t>User ir already registered and logged in and has previously made atleast one review post</t>
@@ -219,7 +334,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -242,6 +357,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -254,9 +395,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -266,15 +404,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -296,6 +437,115 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="10">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>6</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>7</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>8</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>9</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+  <rel r:id="rId6"/>
+  <rel r:id="rId7"/>
+  <rel r:id="rId8"/>
+  <rel r:id="rId9"/>
+  <rel r:id="rId10"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -617,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -629,282 +879,304 @@
     <col min="4" max="4" width="49.5703125" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" customWidth="1"/>
+    <col min="8" max="8" width="77.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="72" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5">
+    <row r="2" spans="1:9" ht="146.25" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="G2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="43.5">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:9" ht="186" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="4" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="57.75">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:9" ht="236.25" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="4" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="43.5">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:9" ht="191.25" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="4" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="43.5">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:9" ht="105" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="4" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="78" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5">
+    <row r="7" spans="1:9" ht="189.75" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>32</v>
+      <c r="E7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="H7" s="4" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="29.25">
-      <c r="A8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="5">
+    <row r="8" spans="1:9" ht="189" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="4" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="43.5">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5">
+    <row r="9" spans="1:9" ht="160.5" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>39</v>
+      <c r="E9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="H9" s="4" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="57.75">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5">
+    <row r="10" spans="1:9" ht="125.25" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4">
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>42</v>
+      <c r="E10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="H10" s="4" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="105" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="5">
+    <row r="11" spans="1:9" ht="222" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="4">
         <v>10</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>46</v>
+      <c r="E11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="H11" s="4" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9">
